--- a/data/outputs/business_outcome_age.xlsx
+++ b/data/outputs/business_outcome_age.xlsx
@@ -811,11 +811,21 @@
           <t>Old Adults (&gt;35)</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>1585237.464615565</v>
+      </c>
+      <c r="E12" t="n">
+        <v>634094985.846226</v>
+      </c>
+      <c r="F12" t="n">
+        <v>171205646.178481</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1250134116.970481</v>
+      </c>
+      <c r="H12" t="n">
+        <v>337528760.9659461</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -833,11 +843,21 @@
           <t>Young Adults (16-35)</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>1935970.743736671</v>
+      </c>
+      <c r="E13" t="n">
+        <v>967985371.8683355</v>
+      </c>
+      <c r="F13" t="n">
+        <v>261356050.4044506</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1558514527.830332</v>
+      </c>
+      <c r="H13" t="n">
+        <v>420802600.8586028</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1047,11 +1067,21 @@
           <t>Old Adults (&gt;35)</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>4998328.864359677</v>
+      </c>
+      <c r="E20" t="n">
+        <v>249916443.2179838</v>
+      </c>
+      <c r="F20" t="n">
+        <v>249916443.2179838</v>
+      </c>
+      <c r="G20" t="n">
+        <v>741951936.6255504</v>
+      </c>
+      <c r="H20" t="n">
+        <v>741951936.6255504</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1069,11 +1099,21 @@
           <t>Young Adults (16-35)</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>3768936.71234369</v>
+      </c>
+      <c r="E21" t="n">
+        <v>263825569.8640583</v>
+      </c>
+      <c r="F21" t="n">
+        <v>263825569.8640583</v>
+      </c>
+      <c r="G21" t="n">
+        <v>400864108.7248749</v>
+      </c>
+      <c r="H21" t="n">
+        <v>400864108.7248749</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1411,11 +1451,21 @@
           <t>Old Adults (&gt;35)</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>1755783.924899901</v>
+      </c>
+      <c r="E32" t="n">
+        <v>702313569.9599605</v>
+      </c>
+      <c r="F32" t="n">
+        <v>189624663.8891893</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1384628761.015311</v>
+      </c>
+      <c r="H32" t="n">
+        <v>373841513.2896869</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1433,11 +1483,21 @@
           <t>Young Adults (16-35)</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>2220731.597959453</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1110365798.979726</v>
+      </c>
+      <c r="F33" t="n">
+        <v>299798765.7245261</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1787755558.305298</v>
+      </c>
+      <c r="H33" t="n">
+        <v>482698220.1324667</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1647,11 +1707,21 @@
           <t>Old Adults (&gt;35)</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>6497841.165610854</v>
+      </c>
+      <c r="E40" t="n">
+        <v>324892058.2805427</v>
+      </c>
+      <c r="F40" t="n">
+        <v>324892058.2805427</v>
+      </c>
+      <c r="G40" t="n">
+        <v>964539542.623275</v>
+      </c>
+      <c r="H40" t="n">
+        <v>964539542.623275</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1669,11 +1739,21 @@
           <t>Young Adults (16-35)</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>4676181.676154941</v>
+      </c>
+      <c r="E41" t="n">
+        <v>327332717.3308459</v>
+      </c>
+      <c r="F41" t="n">
+        <v>327332717.3308459</v>
+      </c>
+      <c r="G41" t="n">
+        <v>497358683.0758396</v>
+      </c>
+      <c r="H41" t="n">
+        <v>497358683.0758396</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2011,11 +2091,21 @@
           <t>Old Adults (&gt;35)</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
+      <c r="D52" t="n">
+        <v>2315387.281735959</v>
+      </c>
+      <c r="E52" t="n">
+        <v>926154912.6943836</v>
+      </c>
+      <c r="F52" t="n">
+        <v>250061826.4274836</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1825937564.249795</v>
+      </c>
+      <c r="H52" t="n">
+        <v>492992260.0272204</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2033,11 +2123,21 @@
           <t>Young Adults (16-35)</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>2558409.852728619</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1279204926.364309</v>
+      </c>
+      <c r="F53" t="n">
+        <v>345385330.1183636</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2059596683.74212</v>
+      </c>
+      <c r="H53" t="n">
+        <v>556095965.5890926</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2247,11 +2347,21 @@
           <t>Old Adults (&gt;35)</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
+      <c r="D60" t="n">
+        <v>8995140.903596491</v>
+      </c>
+      <c r="E60" t="n">
+        <v>449757045.1798245</v>
+      </c>
+      <c r="F60" t="n">
+        <v>449757045.1798245</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1335238715.729863</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1335238715.729863</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2269,11 +2379,21 @@
           <t>Young Adults (16-35)</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>5917011.943999122</v>
+      </c>
+      <c r="E61" t="n">
+        <v>414190836.0799385</v>
+      </c>
+      <c r="F61" t="n">
+        <v>414190836.0799385</v>
+      </c>
+      <c r="G61" t="n">
+        <v>629333390.3637466</v>
+      </c>
+      <c r="H61" t="n">
+        <v>629333390.3637466</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2611,11 +2731,21 @@
           <t>Old Adults (&gt;35)</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
+      <c r="D72" t="n">
+        <v>2713456.974607939</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1085382789.843176</v>
+      </c>
+      <c r="F72" t="n">
+        <v>293053353.2576574</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2139859304.745567</v>
+      </c>
+      <c r="H72" t="n">
+        <v>577749259.0335224</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2633,11 +2763,21 @@
           <t>Young Adults (16-35)</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
+      <c r="D73" t="n">
+        <v>2789736.641076741</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1394868320.53837</v>
+      </c>
+      <c r="F73" t="n">
+        <v>376614446.54536</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2245821688.166008</v>
+      </c>
+      <c r="H73" t="n">
+        <v>606377156.3044404</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2847,11 +2987,21 @@
           <t>Old Adults (&gt;35)</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
+      <c r="D80" t="n">
+        <v>13435036.98764772</v>
+      </c>
+      <c r="E80" t="n">
+        <v>671751849.382386</v>
+      </c>
+      <c r="F80" t="n">
+        <v>671751849.382386</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1994296890.446428</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1994296890.446428</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2869,11 +3019,21 @@
           <t>Young Adults (16-35)</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>7822087.295836924</v>
+      </c>
+      <c r="E81" t="n">
+        <v>547546110.7085847</v>
+      </c>
+      <c r="F81" t="n">
+        <v>547546110.7085847</v>
+      </c>
+      <c r="G81" t="n">
+        <v>831957204.7852151</v>
+      </c>
+      <c r="H81" t="n">
+        <v>831957204.7852151</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3211,11 +3371,21 @@
           <t>Old Adults (&gt;35)</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
+      <c r="D92" t="n">
+        <v>2929425.189087573</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1171770075.635029</v>
+      </c>
+      <c r="F92" t="n">
+        <v>316377920.4214579</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2310173998.366351</v>
+      </c>
+      <c r="H92" t="n">
+        <v>623733211.2605259</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3233,11 +3403,21 @@
           <t>Young Adults (16-35)</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>2902539.469497925</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1451269734.748963</v>
+      </c>
+      <c r="F93" t="n">
+        <v>391842828.3822199</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2336631349.129915</v>
+      </c>
+      <c r="H93" t="n">
+        <v>630895979.0900691</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3447,11 +3627,21 @@
           <t>Old Adults (&gt;35)</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
+      <c r="D100" t="n">
+        <v>18534617.17857538</v>
+      </c>
+      <c r="E100" t="n">
+        <v>926730858.9287691</v>
+      </c>
+      <c r="F100" t="n">
+        <v>926730858.9287691</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2751278573.98773</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2751278573.98773</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3469,11 +3659,21 @@
           <t>Young Adults (16-35)</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>9989713.744965134</v>
+      </c>
+      <c r="E101" t="n">
+        <v>699279962.1475594</v>
+      </c>
+      <c r="F101" t="n">
+        <v>699279962.1475594</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1062505953.914492</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1062505953.914492</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/outputs/business_outcome_age.xlsx
+++ b/data/outputs/business_outcome_age.xlsx
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>512111.1046377387</v>
+        <v>512292.9520202714</v>
       </c>
       <c r="E2" t="n">
-        <v>35847777.32464171</v>
+        <v>35860506.641419</v>
       </c>
       <c r="F2" t="n">
-        <v>22942577.4877707</v>
+        <v>22950724.25050816</v>
       </c>
       <c r="G2" t="n">
-        <v>53162253.77244366</v>
+        <v>53201623.06730518</v>
       </c>
       <c r="H2" t="n">
-        <v>34024661.79213136</v>
+        <v>34052112.52078744</v>
       </c>
     </row>
     <row r="3">
@@ -524,19 +524,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>459588.9210641176</v>
+        <v>459623.1919022651</v>
       </c>
       <c r="E3" t="n">
-        <v>34928758.00087293</v>
+        <v>34931362.58457215</v>
       </c>
       <c r="F3" t="n">
-        <v>22354405.12055868</v>
+        <v>22356072.05412618</v>
       </c>
       <c r="G3" t="n">
-        <v>66281914.19586704</v>
+        <v>66250086.88079249</v>
       </c>
       <c r="H3" t="n">
-        <v>42420057.41421805</v>
+        <v>42400239.45298396</v>
       </c>
     </row>
     <row r="4">
@@ -556,19 +556,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>722007.9064602394</v>
+        <v>722114.3597261214</v>
       </c>
       <c r="E4" t="n">
-        <v>36100395.32301197</v>
+        <v>36105717.98630607</v>
       </c>
       <c r="F4" t="n">
-        <v>26353288.58579874</v>
+        <v>26357174.13000343</v>
       </c>
       <c r="G4" t="n">
-        <v>66475267.94779424</v>
+        <v>66499511.38717853</v>
       </c>
       <c r="H4" t="n">
-        <v>48526151.39319269</v>
+        <v>48540527.26078988</v>
       </c>
     </row>
     <row r="5">
@@ -588,19 +588,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>346448.8251966482</v>
+        <v>346065.6710367714</v>
       </c>
       <c r="E5" t="n">
-        <v>19747583.03620895</v>
+        <v>19725743.24909597</v>
       </c>
       <c r="F5" t="n">
-        <v>14415735.61643253</v>
+        <v>14399792.57184006</v>
       </c>
       <c r="G5" t="n">
-        <v>89924257.06804201</v>
+        <v>89942467.90245688</v>
       </c>
       <c r="H5" t="n">
-        <v>65645123.3982609</v>
+        <v>65659039.76580663</v>
       </c>
     </row>
     <row r="6">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1486842.507933107</v>
+        <v>1485997.516714026</v>
       </c>
       <c r="E6" t="n">
-        <v>66907912.85698982</v>
+        <v>66869888.25213117</v>
       </c>
       <c r="F6" t="n">
-        <v>70253308.49983931</v>
+        <v>70213382.66473773</v>
       </c>
       <c r="G6" t="n">
-        <v>99425158.50548688</v>
+        <v>99457813.79366978</v>
       </c>
       <c r="H6" t="n">
-        <v>104406080.9070628</v>
+        <v>104435905.4746618</v>
       </c>
     </row>
     <row r="7">
@@ -652,19 +652,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>999030.9995293195</v>
+        <v>998845.5644964637</v>
       </c>
       <c r="E7" t="n">
-        <v>39961239.98117278</v>
+        <v>39953822.57985855</v>
       </c>
       <c r="F7" t="n">
-        <v>41959301.98023142</v>
+        <v>41951513.70885148</v>
       </c>
       <c r="G7" t="n">
-        <v>74887363.72471778</v>
+        <v>74893440.42594485</v>
       </c>
       <c r="H7" t="n">
-        <v>78633729.97295272</v>
+        <v>78639111.2928066</v>
       </c>
     </row>
     <row r="8">
@@ -684,19 +684,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>71406.74856363097</v>
+        <v>71430.77611837292</v>
       </c>
       <c r="E8" t="n">
-        <v>3570337.428181549</v>
+        <v>3571538.805918646</v>
       </c>
       <c r="F8" t="n">
-        <v>3748854.299590626</v>
+        <v>3750115.746214578</v>
       </c>
       <c r="G8" t="n">
-        <v>5418344.081008318</v>
+        <v>5420167.291862137</v>
       </c>
       <c r="H8" t="n">
-        <v>5688975.65806448</v>
+        <v>5691604.241111955</v>
       </c>
     </row>
     <row r="9">
@@ -716,19 +716,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>51192.172165933</v>
+        <v>51196.30246291492</v>
       </c>
       <c r="E9" t="n">
-        <v>2559608.60829665</v>
+        <v>2559815.123145746</v>
       </c>
       <c r="F9" t="n">
-        <v>2687589.038711483</v>
+        <v>2687805.879303033</v>
       </c>
       <c r="G9" t="n">
-        <v>4359013.459929195</v>
+        <v>4357829.265643318</v>
       </c>
       <c r="H9" t="n">
-        <v>4576580.19163441</v>
+        <v>4575925.514135336</v>
       </c>
     </row>
     <row r="10">
@@ -748,19 +748,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>169237.8836125797</v>
+        <v>416194.2150206688</v>
       </c>
       <c r="E10" t="n">
-        <v>846189418.0628985</v>
+        <v>2080971075.103344</v>
       </c>
       <c r="F10" t="n">
-        <v>5669469.10102142</v>
+        <v>13942506.20319241</v>
       </c>
       <c r="G10" t="n">
-        <v>1233092605.683798</v>
+        <v>3059635123.955846</v>
       </c>
       <c r="H10" t="n">
-        <v>8262193.477966141</v>
+        <v>20497565.08976794</v>
       </c>
     </row>
     <row r="11">
@@ -780,19 +780,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>88436.2966942045</v>
+        <v>166477.6860082676</v>
       </c>
       <c r="E11" t="n">
-        <v>619054076.8594315</v>
+        <v>499433058.0248028</v>
       </c>
       <c r="F11" t="n">
-        <v>4147662.314958191</v>
+        <v>3346201.488766179</v>
       </c>
       <c r="G11" t="n">
-        <v>874629668.1278809</v>
+        <v>1069812246.718889</v>
       </c>
       <c r="H11" t="n">
-        <v>5859789.018957991</v>
+        <v>7168529.159516003</v>
       </c>
     </row>
     <row r="12">
@@ -812,19 +812,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1585237.464615565</v>
+        <v>1304665.194443006</v>
       </c>
       <c r="E12" t="n">
-        <v>634094985.846226</v>
+        <v>521866077.7772024</v>
       </c>
       <c r="F12" t="n">
-        <v>171205646.178481</v>
+        <v>140903840.9998447</v>
       </c>
       <c r="G12" t="n">
-        <v>1250134116.970481</v>
+        <v>1139468487.522633</v>
       </c>
       <c r="H12" t="n">
-        <v>337528760.9659461</v>
+        <v>307653099.5016053</v>
       </c>
     </row>
     <row r="13">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1935970.743736671</v>
+        <v>1852298.086844459</v>
       </c>
       <c r="E13" t="n">
-        <v>967985371.8683355</v>
+        <v>926149043.4222295</v>
       </c>
       <c r="F13" t="n">
-        <v>261356050.4044506</v>
+        <v>250060241.7240019</v>
       </c>
       <c r="G13" t="n">
-        <v>1558514527.830332</v>
+        <v>1338303890.72599</v>
       </c>
       <c r="H13" t="n">
-        <v>420802600.8586028</v>
+        <v>361346310.781617</v>
       </c>
     </row>
     <row r="14">
@@ -876,19 +876,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>91961.51525824949</v>
+        <v>91999.44606515269</v>
       </c>
       <c r="E14" t="n">
-        <v>5517690.915494969</v>
+        <v>5519966.763909161</v>
       </c>
       <c r="F14" t="n">
-        <v>3255437.640142032</v>
+        <v>3256780.390706405</v>
       </c>
       <c r="G14" t="n">
-        <v>7275075.472080117</v>
+        <v>7280836.161596184</v>
       </c>
       <c r="H14" t="n">
-        <v>4291843.917102504</v>
+        <v>4295454.136781978</v>
       </c>
     </row>
     <row r="15">
@@ -908,19 +908,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>65770.85937939062</v>
+        <v>65792.64372900871</v>
       </c>
       <c r="E15" t="n">
-        <v>4209335.000281</v>
+        <v>4210729.198656557</v>
       </c>
       <c r="F15" t="n">
-        <v>2483507.65016579</v>
+        <v>2484330.227207369</v>
       </c>
       <c r="G15" t="n">
-        <v>14605077.03378748</v>
+        <v>14624388.84808405</v>
       </c>
       <c r="H15" t="n">
-        <v>8616640.287293965</v>
+        <v>8628047.2986222</v>
       </c>
     </row>
     <row r="16">
@@ -1004,19 +1004,19 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>633509.8925888197</v>
+        <v>633745.6659401422</v>
       </c>
       <c r="E18" t="n">
-        <v>29774964.95167453</v>
+        <v>29786046.29918668</v>
       </c>
       <c r="F18" t="n">
-        <v>31263713.19925825</v>
+        <v>31275348.61414602</v>
       </c>
       <c r="G18" t="n">
-        <v>34291890.48583281</v>
+        <v>34298315.4406805</v>
       </c>
       <c r="H18" t="n">
-        <v>36008702.29474851</v>
+        <v>36015766.19537828</v>
       </c>
     </row>
     <row r="19">
@@ -1036,19 +1036,19 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>421058.9240066114</v>
+        <v>421036.13077588</v>
       </c>
       <c r="E19" t="n">
-        <v>18947651.58029751</v>
+        <v>18946625.8849146</v>
       </c>
       <c r="F19" t="n">
-        <v>19895034.15931239</v>
+        <v>19893957.17916033</v>
       </c>
       <c r="G19" t="n">
-        <v>24876161.2303106</v>
+        <v>24862183.52231571</v>
       </c>
       <c r="H19" t="n">
-        <v>26118285.0561301</v>
+        <v>26104240.10810456</v>
       </c>
     </row>
     <row r="20">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4998328.864359677</v>
+        <v>4997565.489937045</v>
       </c>
       <c r="E20" t="n">
-        <v>249916443.2179838</v>
+        <v>249878274.4968522</v>
       </c>
       <c r="F20" t="n">
-        <v>249916443.2179838</v>
+        <v>249878274.4968522</v>
       </c>
       <c r="G20" t="n">
-        <v>741951936.6255504</v>
+        <v>741988548.290953</v>
       </c>
       <c r="H20" t="n">
-        <v>741951936.6255504</v>
+        <v>741988548.290953</v>
       </c>
     </row>
     <row r="21">
@@ -1100,19 +1100,19 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3768936.71234369</v>
+        <v>3767557.511662939</v>
       </c>
       <c r="E21" t="n">
-        <v>263825569.8640583</v>
+        <v>263729025.8164057</v>
       </c>
       <c r="F21" t="n">
-        <v>263825569.8640583</v>
+        <v>263729025.8164057</v>
       </c>
       <c r="G21" t="n">
-        <v>400864108.7248749</v>
+        <v>400642065.7902369</v>
       </c>
       <c r="H21" t="n">
-        <v>400864108.7248749</v>
+        <v>400642065.7902369</v>
       </c>
     </row>
     <row r="22">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>657802.874028507</v>
+        <v>657930.1410714026</v>
       </c>
       <c r="E22" t="n">
-        <v>46046201.1819955</v>
+        <v>46055109.87499818</v>
       </c>
       <c r="F22" t="n">
-        <v>29469568.75647711</v>
+        <v>29475270.31999883</v>
       </c>
       <c r="G22" t="n">
-        <v>68286516.35289931</v>
+        <v>68326045.15026516</v>
       </c>
       <c r="H22" t="n">
-        <v>43704422.950454</v>
+        <v>43732616.47701613</v>
       </c>
     </row>
     <row r="23">
@@ -1164,19 +1164,19 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>567392.6537098238</v>
+        <v>567525.5024795898</v>
       </c>
       <c r="E23" t="n">
-        <v>43121841.68194661</v>
+        <v>43131938.18844882</v>
       </c>
       <c r="F23" t="n">
-        <v>27597978.67644583</v>
+        <v>27604440.44060725</v>
       </c>
       <c r="G23" t="n">
-        <v>81829368.51803079</v>
+        <v>81803125.92740807</v>
       </c>
       <c r="H23" t="n">
-        <v>52370341.93741674</v>
+        <v>52354227.60374216</v>
       </c>
     </row>
     <row r="24">
@@ -1196,19 +1196,19 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>881525.1377424751</v>
+        <v>881369.9519306278</v>
       </c>
       <c r="E24" t="n">
-        <v>44076256.88712376</v>
+        <v>44068497.59653139</v>
       </c>
       <c r="F24" t="n">
-        <v>32175667.52760034</v>
+        <v>32170003.24546792</v>
       </c>
       <c r="G24" t="n">
-        <v>81162019.43194968</v>
+        <v>81165358.87329152</v>
       </c>
       <c r="H24" t="n">
-        <v>59247304.50767175</v>
+        <v>59245688.1687768</v>
       </c>
     </row>
     <row r="25">
@@ -1228,19 +1228,19 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>426597.7038271201</v>
+        <v>426113.7898163971</v>
       </c>
       <c r="E25" t="n">
-        <v>24316069.11814585</v>
+        <v>24288486.01953464</v>
       </c>
       <c r="F25" t="n">
-        <v>17750730.45624647</v>
+        <v>17730594.79426029</v>
       </c>
       <c r="G25" t="n">
-        <v>110727700.0053673</v>
+        <v>110746973.9732816</v>
       </c>
       <c r="H25" t="n">
-        <v>80831732.92116271</v>
+        <v>80846569.34186502</v>
       </c>
     </row>
     <row r="26">
@@ -1260,19 +1260,19 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2058866.900113452</v>
+        <v>2058022.70997705</v>
       </c>
       <c r="E26" t="n">
-        <v>92649010.50510535</v>
+        <v>92611021.94896725</v>
       </c>
       <c r="F26" t="n">
-        <v>97281461.03036061</v>
+        <v>97241573.04641561</v>
       </c>
       <c r="G26" t="n">
-        <v>137676429.6105866</v>
+        <v>137743459.978764</v>
       </c>
       <c r="H26" t="n">
-        <v>144573633.7259666</v>
+        <v>144637836.0571871</v>
       </c>
     </row>
     <row r="27">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1244405.170650171</v>
+        <v>1244262.165109845</v>
       </c>
       <c r="E27" t="n">
-        <v>49776206.82600684</v>
+        <v>49770486.6043938</v>
       </c>
       <c r="F27" t="n">
-        <v>52265017.16730718</v>
+        <v>52259010.9346135</v>
       </c>
       <c r="G27" t="n">
-        <v>93280611.59193681</v>
+        <v>93294777.13993619</v>
       </c>
       <c r="H27" t="n">
-        <v>97947130.98187496</v>
+        <v>97960760.25909811</v>
       </c>
     </row>
     <row r="28">
@@ -1324,19 +1324,19 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>102068.0698827779</v>
+        <v>102084.1934652099</v>
       </c>
       <c r="E28" t="n">
-        <v>5103403.494138895</v>
+        <v>5104209.673260495</v>
       </c>
       <c r="F28" t="n">
-        <v>5358573.66884584</v>
+        <v>5359420.156923519</v>
       </c>
       <c r="G28" t="n">
-        <v>7744925.142705186</v>
+        <v>7746148.600140126</v>
       </c>
       <c r="H28" t="n">
-        <v>8131763.127560915</v>
+        <v>8134068.535307925</v>
       </c>
     </row>
     <row r="29">
@@ -1356,19 +1356,19 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>72798.41802525069</v>
+        <v>72811.92309419277</v>
       </c>
       <c r="E29" t="n">
-        <v>3639920.901262535</v>
+        <v>3640596.154709639</v>
       </c>
       <c r="F29" t="n">
-        <v>3821916.946325661</v>
+        <v>3822625.96244512</v>
       </c>
       <c r="G29" t="n">
-        <v>6198785.294850097</v>
+        <v>6197750.893777689</v>
       </c>
       <c r="H29" t="n">
-        <v>6508178.571457412</v>
+        <v>6507929.68615895</v>
       </c>
     </row>
     <row r="30">
@@ -1388,19 +1388,19 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>257308.2534763862</v>
+        <v>594428.7997583338</v>
       </c>
       <c r="E30" t="n">
-        <v>1286541267.381931</v>
+        <v>2972143998.791669</v>
       </c>
       <c r="F30" t="n">
-        <v>8619826.491458938</v>
+        <v>19913364.79190418</v>
       </c>
       <c r="G30" t="n">
-        <v>1874786531.066971</v>
+        <v>4369919544.2714</v>
       </c>
       <c r="H30" t="n">
-        <v>12561788.93471717</v>
+        <v>29275618.38809794</v>
       </c>
     </row>
     <row r="31">
@@ -1420,19 +1420,19 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>218854.6255512335</v>
+        <v>259827.4619196831</v>
       </c>
       <c r="E31" t="n">
-        <v>1531982378.858634</v>
+        <v>779482385.7590493</v>
       </c>
       <c r="F31" t="n">
-        <v>10264281.93835285</v>
+        <v>5222531.984585631</v>
       </c>
       <c r="G31" t="n">
-        <v>2164459115.424166</v>
+        <v>1669692842.689791</v>
       </c>
       <c r="H31" t="n">
-        <v>14501307.48902473</v>
+        <v>11188170.51026155</v>
       </c>
     </row>
     <row r="32">
@@ -1452,19 +1452,19 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1755783.924899901</v>
+        <v>1459219.105315902</v>
       </c>
       <c r="E32" t="n">
-        <v>702313569.9599605</v>
+        <v>583687642.1263608</v>
       </c>
       <c r="F32" t="n">
-        <v>189624663.8891893</v>
+        <v>157595663.3741174</v>
       </c>
       <c r="G32" t="n">
-        <v>1384628761.015311</v>
+        <v>1274452782.200803</v>
       </c>
       <c r="H32" t="n">
-        <v>373841513.2896869</v>
+        <v>344098457.2245429</v>
       </c>
     </row>
     <row r="33">
@@ -1484,19 +1484,19 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2220731.597959453</v>
+        <v>2161405.90859025</v>
       </c>
       <c r="E33" t="n">
-        <v>1110365798.979726</v>
+        <v>1080702954.295125</v>
       </c>
       <c r="F33" t="n">
-        <v>299798765.7245261</v>
+        <v>291789797.6596838</v>
       </c>
       <c r="G33" t="n">
-        <v>1787755558.305298</v>
+        <v>1561637383.015542</v>
       </c>
       <c r="H33" t="n">
-        <v>482698220.1324667</v>
+        <v>421647064.647786</v>
       </c>
     </row>
     <row r="34">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>124292.6379250969</v>
+        <v>124312.6877805924</v>
       </c>
       <c r="E34" t="n">
-        <v>7457558.275505815</v>
+        <v>7458761.266835544</v>
       </c>
       <c r="F34" t="n">
-        <v>4399959.38254843</v>
+        <v>4400669.147432971</v>
       </c>
       <c r="G34" t="n">
-        <v>9832790.586254416</v>
+        <v>9838106.110956082</v>
       </c>
       <c r="H34" t="n">
-        <v>5800737.411964273</v>
+        <v>5804159.392475859</v>
       </c>
     </row>
     <row r="35">
@@ -1548,19 +1548,19 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>91558.81893978929</v>
+        <v>91617.79360394672</v>
       </c>
       <c r="E35" t="n">
-        <v>5859764.412146514</v>
+        <v>5863538.79065259</v>
       </c>
       <c r="F35" t="n">
-        <v>3457261.003166443</v>
+        <v>3459487.886485028</v>
       </c>
       <c r="G35" t="n">
-        <v>20331551.33376961</v>
+        <v>20364803.16228528</v>
       </c>
       <c r="H35" t="n">
-        <v>11995120.86930179</v>
+        <v>12014757.45322157</v>
       </c>
     </row>
     <row r="36">
@@ -1644,19 +1644,19 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>826042.3412029481</v>
+        <v>826321.0725344451</v>
       </c>
       <c r="E38" t="n">
-        <v>38823990.03653856</v>
+        <v>38837090.40911892</v>
       </c>
       <c r="F38" t="n">
-        <v>40765189.53836549</v>
+        <v>40778944.92957487</v>
       </c>
       <c r="G38" t="n">
-        <v>44713671.92931558</v>
+        <v>44720496.44556417</v>
       </c>
       <c r="H38" t="n">
-        <v>46952246.67397557</v>
+        <v>46959826.55213251</v>
       </c>
     </row>
     <row r="39">
@@ -1676,19 +1676,19 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>498225.5550748801</v>
+        <v>498216.9569607233</v>
       </c>
       <c r="E39" t="n">
-        <v>22420149.9783696</v>
+        <v>22419763.06323255</v>
       </c>
       <c r="F39" t="n">
-        <v>23541157.47728808</v>
+        <v>23540751.21639418</v>
       </c>
       <c r="G39" t="n">
-        <v>29435165.79382391</v>
+        <v>29419711.30853071</v>
       </c>
       <c r="H39" t="n">
-        <v>30904931.18129481</v>
+        <v>30889451.33156485</v>
       </c>
     </row>
     <row r="40">
@@ -1708,19 +1708,19 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>6497841.165610854</v>
+        <v>6497026.577848629</v>
       </c>
       <c r="E40" t="n">
-        <v>324892058.2805427</v>
+        <v>324851328.8924314</v>
       </c>
       <c r="F40" t="n">
-        <v>324892058.2805427</v>
+        <v>324851328.8924314</v>
       </c>
       <c r="G40" t="n">
-        <v>964539542.623275</v>
+        <v>964613536.013186</v>
       </c>
       <c r="H40" t="n">
-        <v>964539542.623275</v>
+        <v>964613536.013186</v>
       </c>
     </row>
     <row r="41">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4676181.676154941</v>
+        <v>4673551.71511542</v>
       </c>
       <c r="E41" t="n">
-        <v>327332717.3308459</v>
+        <v>327148620.0580794</v>
       </c>
       <c r="F41" t="n">
-        <v>327332717.3308459</v>
+        <v>327148620.0580794</v>
       </c>
       <c r="G41" t="n">
-        <v>497358683.0758396</v>
+        <v>496985489.3853737</v>
       </c>
       <c r="H41" t="n">
-        <v>497358683.0758396</v>
+        <v>496985489.3853737</v>
       </c>
     </row>
     <row r="42">
@@ -1772,19 +1772,19 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1071320.670289866</v>
+        <v>1071423.106830045</v>
       </c>
       <c r="E42" t="n">
-        <v>74992446.92029062</v>
+        <v>74999617.47810316</v>
       </c>
       <c r="F42" t="n">
-        <v>47995166.02898599</v>
+        <v>47999755.18598602</v>
       </c>
       <c r="G42" t="n">
-        <v>111213798.782791</v>
+        <v>111267289.6443002</v>
       </c>
       <c r="H42" t="n">
-        <v>71178545.33405869</v>
+        <v>71217493.9109931</v>
       </c>
     </row>
     <row r="43">
@@ -1804,19 +1804,19 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>806848.4483442836</v>
+        <v>807102.2133519298</v>
       </c>
       <c r="E43" t="n">
-        <v>61320482.07416555</v>
+        <v>61339768.21474666</v>
       </c>
       <c r="F43" t="n">
-        <v>39245108.52746595</v>
+        <v>39257451.65743787</v>
       </c>
       <c r="G43" t="n">
-        <v>116363683.2202126</v>
+        <v>116335713.0325471</v>
       </c>
       <c r="H43" t="n">
-        <v>74472111.78217737</v>
+        <v>74455179.18171552</v>
       </c>
     </row>
     <row r="44">
@@ -1836,19 +1836,19 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1262280.980388436</v>
+        <v>1261902.082511952</v>
       </c>
       <c r="E44" t="n">
-        <v>63114049.0194218</v>
+        <v>63095104.1255976</v>
       </c>
       <c r="F44" t="n">
-        <v>46073255.78417791</v>
+        <v>46059426.01168624</v>
       </c>
       <c r="G44" t="n">
-        <v>116218209.8643633</v>
+        <v>116208562.7785257</v>
       </c>
       <c r="H44" t="n">
-        <v>84837904.69190678</v>
+        <v>84825057.9864534</v>
       </c>
     </row>
     <row r="45">
@@ -1868,19 +1868,19 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>608205.954638844</v>
+        <v>607879.9965201912</v>
       </c>
       <c r="E45" t="n">
-        <v>34667739.41441411</v>
+        <v>34649159.8016509</v>
       </c>
       <c r="F45" t="n">
-        <v>25307449.7725223</v>
+        <v>25293886.65520516</v>
       </c>
       <c r="G45" t="n">
-        <v>157865937.5860583</v>
+        <v>157988011.0955977</v>
       </c>
       <c r="H45" t="n">
-        <v>115242864.2849682</v>
+        <v>115333071.7397759</v>
       </c>
     </row>
     <row r="46">
@@ -1900,19 +1900,19 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3702303.179975081</v>
+        <v>3702722.961754397</v>
       </c>
       <c r="E46" t="n">
-        <v>166603643.0988786</v>
+        <v>166622533.2789479</v>
       </c>
       <c r="F46" t="n">
-        <v>174933825.2538226</v>
+        <v>174953659.9428953</v>
       </c>
       <c r="G46" t="n">
-        <v>247573013.6449337</v>
+        <v>247823247.8302218</v>
       </c>
       <c r="H46" t="n">
-        <v>259975729.2978502</v>
+        <v>260227369.752099</v>
       </c>
     </row>
     <row r="47">
@@ -1932,19 +1932,19 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2041710.846598907</v>
+        <v>2041252.575601803</v>
       </c>
       <c r="E47" t="n">
-        <v>81668433.86395627</v>
+        <v>81650103.02407211</v>
       </c>
       <c r="F47" t="n">
-        <v>85751855.55715409</v>
+        <v>85732608.17527573</v>
       </c>
       <c r="G47" t="n">
-        <v>153046645.0610541</v>
+        <v>153053118.1186232</v>
       </c>
       <c r="H47" t="n">
-        <v>160703060.7357999</v>
+        <v>160707815.2771299</v>
       </c>
     </row>
     <row r="48">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>178288.5250356449</v>
+        <v>178315.4610141023</v>
       </c>
       <c r="E48" t="n">
-        <v>8914426.251782246</v>
+        <v>8915773.050705114</v>
       </c>
       <c r="F48" t="n">
-        <v>9360147.564371359</v>
+        <v>9361561.70324037</v>
       </c>
       <c r="G48" t="n">
-        <v>13528533.27970473</v>
+        <v>13530577.18175008</v>
       </c>
       <c r="H48" t="n">
-        <v>14204246.78958983</v>
+        <v>14208175.93360367</v>
       </c>
     </row>
     <row r="49">
@@ -1996,19 +1996,19 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>117546.314997698</v>
+        <v>117558.4032719683</v>
       </c>
       <c r="E49" t="n">
-        <v>5877315.749884901</v>
+        <v>5877920.163598415</v>
       </c>
       <c r="F49" t="n">
-        <v>6171181.537379146</v>
+        <v>6171816.171778336</v>
       </c>
       <c r="G49" t="n">
-        <v>10009068.72205399</v>
+        <v>10006571.28650994</v>
       </c>
       <c r="H49" t="n">
-        <v>10508640.5607942</v>
+        <v>10507370.08444853</v>
       </c>
     </row>
     <row r="50">
@@ -2028,19 +2028,19 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>662220.8961944008</v>
+        <v>1221776.91595898</v>
       </c>
       <c r="E50" t="n">
-        <v>3311104480.972004</v>
+        <v>6108884579.794901</v>
       </c>
       <c r="F50" t="n">
-        <v>22184400.02251243</v>
+        <v>40929526.68462583</v>
       </c>
       <c r="G50" t="n">
-        <v>4825040782.806833</v>
+        <v>8981844126.595804</v>
       </c>
       <c r="H50" t="n">
-        <v>32329624.15221065</v>
+        <v>60172513.11097977</v>
       </c>
     </row>
     <row r="51">
@@ -2060,19 +2060,19 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>410435.5679058965</v>
+        <v>469100.2593029573</v>
       </c>
       <c r="E51" t="n">
-        <v>2873048975.341276</v>
+        <v>1407300777.908872</v>
       </c>
       <c r="F51" t="n">
-        <v>19249428.13478655</v>
+        <v>9428915.211989442</v>
       </c>
       <c r="G51" t="n">
-        <v>4059183140.455243</v>
+        <v>3014513322.322292</v>
       </c>
       <c r="H51" t="n">
-        <v>27195460.7294447</v>
+        <v>20199457.16558534</v>
       </c>
     </row>
     <row r="52">
@@ -2092,19 +2092,19 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2315387.281735959</v>
+        <v>1889762.142747539</v>
       </c>
       <c r="E52" t="n">
-        <v>926154912.6943836</v>
+        <v>755904857.0990156</v>
       </c>
       <c r="F52" t="n">
-        <v>250061826.4274836</v>
+        <v>204094311.4167342</v>
       </c>
       <c r="G52" t="n">
-        <v>1825937564.249795</v>
+        <v>1650480460.232846</v>
       </c>
       <c r="H52" t="n">
-        <v>492992260.0272204</v>
+        <v>445624810.8812972</v>
       </c>
     </row>
     <row r="53">
@@ -2124,19 +2124,19 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2558409.852728619</v>
+        <v>2481435.853216876</v>
       </c>
       <c r="E53" t="n">
-        <v>1279204926.364309</v>
+        <v>1240717926.608438</v>
       </c>
       <c r="F53" t="n">
-        <v>345385330.1183636</v>
+        <v>334993840.1842782</v>
       </c>
       <c r="G53" t="n">
-        <v>2059596683.74212</v>
+        <v>1792862218.307725</v>
       </c>
       <c r="H53" t="n">
-        <v>556095965.5890926</v>
+        <v>484078506.2455482</v>
       </c>
     </row>
     <row r="54">
@@ -2156,19 +2156,19 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>184410.270965725</v>
+        <v>184380.5445915114</v>
       </c>
       <c r="E54" t="n">
-        <v>11064616.2579435</v>
+        <v>11062832.67549068</v>
       </c>
       <c r="F54" t="n">
-        <v>6528123.592186665</v>
+        <v>6527071.278539503</v>
       </c>
       <c r="G54" t="n">
-        <v>14588696.5360985</v>
+        <v>14591876.29897221</v>
       </c>
       <c r="H54" t="n">
-        <v>8606427.345970387</v>
+        <v>8608727.626977667</v>
       </c>
     </row>
     <row r="55">
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>136352.3601681279</v>
+        <v>136377.1461376036</v>
       </c>
       <c r="E55" t="n">
-        <v>8726551.050760185</v>
+        <v>8728137.35280663</v>
       </c>
       <c r="F55" t="n">
-        <v>5148665.119948509</v>
+        <v>5149601.038155911</v>
       </c>
       <c r="G55" t="n">
-        <v>30278405.09893448</v>
+        <v>30313912.04346653</v>
       </c>
       <c r="H55" t="n">
-        <v>17863522.70562644</v>
+        <v>17884498.94448533</v>
       </c>
     </row>
     <row r="56">
@@ -2284,19 +2284,19 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1196109.681663863</v>
+        <v>1196474.014441347</v>
       </c>
       <c r="E58" t="n">
-        <v>56217155.03820156</v>
+        <v>56234278.67874331</v>
       </c>
       <c r="F58" t="n">
-        <v>59028012.79011164</v>
+        <v>59045992.61268047</v>
       </c>
       <c r="G58" t="n">
-        <v>64745417.06846491</v>
+        <v>64753173.6615657</v>
       </c>
       <c r="H58" t="n">
-        <v>67986874.30577397</v>
+        <v>67995618.24070175</v>
       </c>
     </row>
     <row r="59">
@@ -2316,19 +2316,19 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>674399.6397531027</v>
+        <v>674356.3402326106</v>
       </c>
       <c r="E59" t="n">
-        <v>30347983.78888962</v>
+        <v>30346035.31046748</v>
       </c>
       <c r="F59" t="n">
-        <v>31865382.9783341</v>
+        <v>31863337.07599085</v>
       </c>
       <c r="G59" t="n">
-        <v>39843530.71661331</v>
+        <v>39820741.89073566</v>
       </c>
       <c r="H59" t="n">
-        <v>41833009.65388496</v>
+        <v>41810093.09442186</v>
       </c>
     </row>
     <row r="60">
@@ -2348,19 +2348,19 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>8995140.903596491</v>
+        <v>8994373.515838619</v>
       </c>
       <c r="E60" t="n">
-        <v>449757045.1798245</v>
+        <v>449718675.791931</v>
       </c>
       <c r="F60" t="n">
-        <v>449757045.1798245</v>
+        <v>449718675.791931</v>
       </c>
       <c r="G60" t="n">
-        <v>1335238715.729863</v>
+        <v>1335394635.89656</v>
       </c>
       <c r="H60" t="n">
-        <v>1335238715.729863</v>
+        <v>1335394635.89656</v>
       </c>
     </row>
     <row r="61">
@@ -2380,19 +2380,19 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>5917011.943999122</v>
+        <v>5914088.944565412</v>
       </c>
       <c r="E61" t="n">
-        <v>414190836.0799385</v>
+        <v>413986226.1195788</v>
       </c>
       <c r="F61" t="n">
-        <v>414190836.0799385</v>
+        <v>413986226.1195788</v>
       </c>
       <c r="G61" t="n">
-        <v>629333390.3637466</v>
+        <v>628904218.3650858</v>
       </c>
       <c r="H61" t="n">
-        <v>629333390.3637466</v>
+        <v>628904218.3650858</v>
       </c>
     </row>
     <row r="62">
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1558339.86436777</v>
+        <v>1558353.271679397</v>
       </c>
       <c r="E62" t="n">
-        <v>109083790.5057439</v>
+        <v>109084729.0175578</v>
       </c>
       <c r="F62" t="n">
-        <v>69813625.92367609</v>
+        <v>69814226.57123698</v>
       </c>
       <c r="G62" t="n">
-        <v>161771261.3200182</v>
+        <v>161834987.2639054</v>
       </c>
       <c r="H62" t="n">
-        <v>103536100.5885946</v>
+        <v>103583741.9685295</v>
       </c>
     </row>
     <row r="63">
@@ -2444,19 +2444,19 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1065061.812598054</v>
+        <v>1065413.805340071</v>
       </c>
       <c r="E63" t="n">
-        <v>80944697.75745212</v>
+        <v>80971449.2058454</v>
       </c>
       <c r="F63" t="n">
-        <v>51804606.56476935</v>
+        <v>51821727.49174105</v>
       </c>
       <c r="G63" t="n">
-        <v>153603214.6128913</v>
+        <v>153568745.9017178</v>
       </c>
       <c r="H63" t="n">
-        <v>98305205.30280039</v>
+        <v>98284423.54262155</v>
       </c>
     </row>
     <row r="64">
@@ -2476,19 +2476,19 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1884390.048046778</v>
+        <v>1884073.050062811</v>
       </c>
       <c r="E64" t="n">
-        <v>94219502.40233889</v>
+        <v>94203652.50314055</v>
       </c>
       <c r="F64" t="n">
-        <v>68780236.75370739</v>
+        <v>68768666.32729261</v>
       </c>
       <c r="G64" t="n">
-        <v>173495791.7236668</v>
+        <v>173504287.1802843</v>
       </c>
       <c r="H64" t="n">
-        <v>126649855.1292239</v>
+        <v>126647390.4252222</v>
       </c>
     </row>
     <row r="65">
@@ -2508,19 +2508,19 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>789204.8624241436</v>
+        <v>788898.9629086562</v>
       </c>
       <c r="E65" t="n">
-        <v>44984677.15817618</v>
+        <v>44967240.8857934</v>
       </c>
       <c r="F65" t="n">
-        <v>32838814.32546861</v>
+        <v>32826085.84662918</v>
       </c>
       <c r="G65" t="n">
-        <v>204846014.0908107</v>
+        <v>205034840.4599597</v>
       </c>
       <c r="H65" t="n">
-        <v>149538537.3321267</v>
+        <v>149677800.2326593</v>
       </c>
     </row>
     <row r="66">
@@ -2540,19 +2540,19 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>4801861.301268505</v>
+        <v>4802393.846336192</v>
       </c>
       <c r="E66" t="n">
-        <v>216083758.5570827</v>
+        <v>216107723.0851287</v>
       </c>
       <c r="F66" t="n">
-        <v>226887946.4849369</v>
+        <v>226913109.2393851</v>
       </c>
       <c r="G66" t="n">
-        <v>321100465.215825</v>
+        <v>321424220.1352814</v>
       </c>
       <c r="H66" t="n">
-        <v>337186700.5750744</v>
+        <v>337512239.5205076</v>
       </c>
     </row>
     <row r="67">
@@ -2572,19 +2572,19 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2523764.006721635</v>
+        <v>2522473.626637876</v>
       </c>
       <c r="E67" t="n">
-        <v>100950560.2688654</v>
+        <v>100898945.065515</v>
       </c>
       <c r="F67" t="n">
-        <v>105998088.2823087</v>
+        <v>105943892.3187908</v>
       </c>
       <c r="G67" t="n">
-        <v>189181349.9438537</v>
+        <v>189135072.525308</v>
       </c>
       <c r="H67" t="n">
-        <v>198645464.9690599</v>
+        <v>198594348.6252</v>
       </c>
     </row>
     <row r="68">
@@ -2604,19 +2604,19 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>230341.8168584167</v>
+        <v>230383.3610831172</v>
       </c>
       <c r="E68" t="n">
-        <v>11517090.84292084</v>
+        <v>11519168.05415586</v>
       </c>
       <c r="F68" t="n">
-        <v>12092945.38506688</v>
+        <v>12095126.45686365</v>
       </c>
       <c r="G68" t="n">
-        <v>17478337.06321666</v>
+        <v>17481489.43898693</v>
       </c>
       <c r="H68" t="n">
-        <v>18351332.54911006</v>
+        <v>18356946.21110278</v>
       </c>
     </row>
     <row r="69">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>141282.6941141441</v>
+        <v>141292.676545766</v>
       </c>
       <c r="E69" t="n">
-        <v>7064134.705707205</v>
+        <v>7064633.827288301</v>
       </c>
       <c r="F69" t="n">
-        <v>7417341.440992566</v>
+        <v>7417865.518652716</v>
       </c>
       <c r="G69" t="n">
-        <v>12030221.40381937</v>
+        <v>12026832.6275756</v>
       </c>
       <c r="H69" t="n">
-        <v>12630672.85380448</v>
+        <v>12628739.42966056</v>
       </c>
     </row>
     <row r="70">
@@ -2668,19 +2668,19 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1286708.244598735</v>
+        <v>1796218.987877338</v>
       </c>
       <c r="E70" t="n">
-        <v>6433541222.993674</v>
+        <v>8981094939.38669</v>
       </c>
       <c r="F70" t="n">
-        <v>43104726.19405762</v>
+        <v>60173336.09389082</v>
       </c>
       <c r="G70" t="n">
-        <v>9375149276.383072</v>
+        <v>13204832040.62074</v>
       </c>
       <c r="H70" t="n">
-        <v>62817096.50131024</v>
+        <v>88463785.1529589</v>
       </c>
     </row>
     <row r="71">
@@ -2700,19 +2700,19 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>751812.0770717619</v>
+        <v>697184.0946532675</v>
       </c>
       <c r="E71" t="n">
-        <v>5262684539.502334</v>
+        <v>2091552283.959803</v>
       </c>
       <c r="F71" t="n">
-        <v>35259986.41466563</v>
+        <v>14013400.30253068</v>
       </c>
       <c r="G71" t="n">
-        <v>7435376333.515101</v>
+        <v>4480216541.697042</v>
       </c>
       <c r="H71" t="n">
-        <v>49815068.22677495</v>
+        <v>30020747.1157697</v>
       </c>
     </row>
     <row r="72">
@@ -2732,19 +2732,19 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2713456.974607939</v>
+        <v>2370100.665141264</v>
       </c>
       <c r="E72" t="n">
-        <v>1085382789.843176</v>
+        <v>948040266.0565056</v>
       </c>
       <c r="F72" t="n">
-        <v>293053353.2576574</v>
+        <v>255970871.8352565</v>
       </c>
       <c r="G72" t="n">
-        <v>2139859304.745567</v>
+        <v>2069998518.921077</v>
       </c>
       <c r="H72" t="n">
-        <v>577749259.0335224</v>
+        <v>558893437.8469615</v>
       </c>
     </row>
     <row r="73">
@@ -2764,19 +2764,19 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2789736.641076741</v>
+        <v>2802522.777477132</v>
       </c>
       <c r="E73" t="n">
-        <v>1394868320.53837</v>
+        <v>1401261388.738566</v>
       </c>
       <c r="F73" t="n">
-        <v>376614446.54536</v>
+        <v>378340574.9594128</v>
       </c>
       <c r="G73" t="n">
-        <v>2245821688.166008</v>
+        <v>2024850731.955003</v>
       </c>
       <c r="H73" t="n">
-        <v>606377156.3044404</v>
+        <v>546716143.430239</v>
       </c>
     </row>
     <row r="74">
@@ -2796,19 +2796,19 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>285165.6990456115</v>
+        <v>285094.3885208673</v>
       </c>
       <c r="E74" t="n">
-        <v>17109941.94273669</v>
+        <v>17105663.31125204</v>
       </c>
       <c r="F74" t="n">
-        <v>10094865.74621465</v>
+        <v>10092341.3536387</v>
       </c>
       <c r="G74" t="n">
-        <v>22559458.45149833</v>
+        <v>22562369.90754144</v>
       </c>
       <c r="H74" t="n">
-        <v>13308683.17445869</v>
+        <v>13311057.00003929</v>
       </c>
     </row>
     <row r="75">
@@ -2828,19 +2828,19 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>178628.6518033281</v>
+        <v>178613.3518443988</v>
       </c>
       <c r="E75" t="n">
-        <v>11432233.715413</v>
+        <v>11431254.51804152</v>
       </c>
       <c r="F75" t="n">
-        <v>6745017.892093669</v>
+        <v>6744440.165644499</v>
       </c>
       <c r="G75" t="n">
-        <v>39666278.41944704</v>
+        <v>39702175.84797297</v>
       </c>
       <c r="H75" t="n">
-        <v>23402139.67275401</v>
+        <v>23423354.96087446</v>
       </c>
     </row>
     <row r="76">
@@ -2924,19 +2924,19 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1515767.252677527</v>
+        <v>1515880.73434029</v>
       </c>
       <c r="E78" t="n">
-        <v>71241060.87584376</v>
+        <v>71246394.51399364</v>
       </c>
       <c r="F78" t="n">
-        <v>74803113.91963597</v>
+        <v>74808714.23969331</v>
       </c>
       <c r="G78" t="n">
-        <v>82048481.38743454</v>
+        <v>82039465.3424965</v>
       </c>
       <c r="H78" t="n">
-        <v>86156210.64219064</v>
+        <v>86147502.13255869</v>
       </c>
     </row>
     <row r="79">
@@ -2956,19 +2956,19 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>853134.0956891185</v>
+        <v>853303.5441554106</v>
       </c>
       <c r="E79" t="n">
-        <v>38391034.30601034</v>
+        <v>38398659.48699348</v>
       </c>
       <c r="F79" t="n">
-        <v>40310586.02131085</v>
+        <v>40318592.46134315</v>
       </c>
       <c r="G79" t="n">
-        <v>50403162.37331312</v>
+        <v>50387574.282377</v>
       </c>
       <c r="H79" t="n">
-        <v>52919907.95559602</v>
+        <v>52904819.73763546</v>
       </c>
     </row>
     <row r="80">
@@ -2988,19 +2988,19 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>13435036.98764772</v>
+        <v>13435803.10275835</v>
       </c>
       <c r="E80" t="n">
-        <v>671751849.382386</v>
+        <v>671790155.1379175</v>
       </c>
       <c r="F80" t="n">
-        <v>671751849.382386</v>
+        <v>671790155.1379175</v>
       </c>
       <c r="G80" t="n">
-        <v>1994296890.446428</v>
+        <v>1994813686.666532</v>
       </c>
       <c r="H80" t="n">
-        <v>1994296890.446428</v>
+        <v>1994813686.666532</v>
       </c>
     </row>
     <row r="81">
@@ -3020,19 +3020,19 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>7822087.295836924</v>
+        <v>7817011.793443949</v>
       </c>
       <c r="E81" t="n">
-        <v>547546110.7085847</v>
+        <v>547190825.5410764</v>
       </c>
       <c r="F81" t="n">
-        <v>547546110.7085847</v>
+        <v>547190825.5410764</v>
       </c>
       <c r="G81" t="n">
-        <v>831957204.7852151</v>
+        <v>831261034.1148295</v>
       </c>
       <c r="H81" t="n">
-        <v>831957204.7852151</v>
+        <v>831261034.1148295</v>
       </c>
     </row>
     <row r="82">
@@ -3052,19 +3052,19 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2017530.605989169</v>
+        <v>2017622.975258723</v>
       </c>
       <c r="E82" t="n">
-        <v>141227142.4192418</v>
+        <v>141233608.2681106</v>
       </c>
       <c r="F82" t="n">
-        <v>90385371.14831477</v>
+        <v>90389509.29159078</v>
       </c>
       <c r="G82" t="n">
-        <v>209439852.2077357</v>
+        <v>209530145.9806184</v>
       </c>
       <c r="H82" t="n">
-        <v>134044733.4619204</v>
+        <v>134111399.1654473</v>
       </c>
     </row>
     <row r="83">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1197540.644307803</v>
+        <v>1197971.926442435</v>
       </c>
       <c r="E83" t="n">
-        <v>91013088.96739303</v>
+        <v>91045866.40962505</v>
       </c>
       <c r="F83" t="n">
-        <v>58248376.93913154</v>
+        <v>58269354.50216004</v>
       </c>
       <c r="G83" t="n">
-        <v>172709311.7220713</v>
+        <v>172675673.4774126</v>
       </c>
       <c r="H83" t="n">
-        <v>110533001.4696102</v>
+        <v>110512910.2143146</v>
       </c>
     </row>
     <row r="84">
@@ -3116,19 +3116,19 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2278403.621666526</v>
+        <v>2277962.101280643</v>
       </c>
       <c r="E84" t="n">
-        <v>113920181.0833263</v>
+        <v>113898105.0640322</v>
       </c>
       <c r="F84" t="n">
-        <v>83161732.1908282</v>
+        <v>83145616.69674347</v>
       </c>
       <c r="G84" t="n">
-        <v>209772621.446837</v>
+        <v>209777529.9069344</v>
       </c>
       <c r="H84" t="n">
-        <v>153131507.4122072</v>
+        <v>153124612.4480848</v>
       </c>
     </row>
     <row r="85">
@@ -3148,19 +3148,19 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>915136.9657121853</v>
+        <v>914808.9560416031</v>
       </c>
       <c r="E85" t="n">
-        <v>52162807.04559456</v>
+        <v>52144110.49437138</v>
       </c>
       <c r="F85" t="n">
-        <v>38078849.14328403</v>
+        <v>38065200.66089111</v>
       </c>
       <c r="G85" t="n">
-        <v>237532950.8202548</v>
+        <v>237758847.6752126</v>
       </c>
       <c r="H85" t="n">
-        <v>173400152.2631449</v>
+        <v>173566703.2297733</v>
       </c>
     </row>
     <row r="86">
@@ -3180,19 +3180,19 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5815273.971536421</v>
+        <v>5816373.434537147</v>
       </c>
       <c r="E86" t="n">
-        <v>261687328.719139</v>
+        <v>261736804.5541716</v>
       </c>
       <c r="F86" t="n">
-        <v>274771695.1550959</v>
+        <v>274823644.7818802</v>
       </c>
       <c r="G86" t="n">
-        <v>388867370.4766405</v>
+        <v>389289873.9735713</v>
       </c>
       <c r="H86" t="n">
-        <v>408348538.2812875</v>
+        <v>408774724.9792707</v>
       </c>
     </row>
     <row r="87">
@@ -3212,19 +3212,19 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2849467.41101479</v>
+        <v>2847446.108616761</v>
       </c>
       <c r="E87" t="n">
-        <v>113978696.4405916</v>
+        <v>113897844.3446704</v>
       </c>
       <c r="F87" t="n">
-        <v>119677631.2626212</v>
+        <v>119592736.561904</v>
       </c>
       <c r="G87" t="n">
-        <v>213596077.1296687</v>
+        <v>213501509.2240847</v>
       </c>
       <c r="H87" t="n">
-        <v>224281579.9209741</v>
+        <v>224179432.1313976</v>
       </c>
     </row>
     <row r="88">
@@ -3244,19 +3244,19 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>266413.3318943872</v>
+        <v>266467.5019756536</v>
       </c>
       <c r="E88" t="n">
-        <v>13320666.59471936</v>
+        <v>13323375.09878268</v>
       </c>
       <c r="F88" t="n">
-        <v>13986699.92445533</v>
+        <v>13989543.85372181</v>
       </c>
       <c r="G88" t="n">
-        <v>20215443.6241461</v>
+        <v>20219554.04991259</v>
       </c>
       <c r="H88" t="n">
-        <v>21225150.15202583</v>
+        <v>21232130.55742008</v>
       </c>
     </row>
     <row r="89">
@@ -3276,19 +3276,19 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>168942.4341353566</v>
+        <v>168942.4344500432</v>
       </c>
       <c r="E89" t="n">
-        <v>8447121.706767829</v>
+        <v>8447121.722502159</v>
       </c>
       <c r="F89" t="n">
-        <v>8869477.79210622</v>
+        <v>8869477.808627268</v>
       </c>
       <c r="G89" t="n">
-        <v>14385448.26662561</v>
+        <v>14380380.02038768</v>
       </c>
       <c r="H89" t="n">
-        <v>15103453.61170088</v>
+        <v>15100074.79114486</v>
       </c>
     </row>
     <row r="90">
@@ -3308,19 +3308,19 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2890156.661590956</v>
+        <v>3659217.160537655</v>
       </c>
       <c r="E90" t="n">
-        <v>14450783307.95478</v>
+        <v>18296085802.68827</v>
       </c>
       <c r="F90" t="n">
-        <v>96820248.16329703</v>
+        <v>122583774.8780114</v>
       </c>
       <c r="G90" t="n">
-        <v>21058114959.85094</v>
+        <v>26900588587.00615</v>
       </c>
       <c r="H90" t="n">
-        <v>141097448.2188705</v>
+        <v>180216445.1564795</v>
       </c>
     </row>
     <row r="91">
@@ -3340,19 +3340,19 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1436488.810042367</v>
+        <v>1267158.545054455</v>
       </c>
       <c r="E91" t="n">
-        <v>10055421670.29657</v>
+        <v>3801475635.163365</v>
       </c>
       <c r="F91" t="n">
-        <v>67371325.19098702</v>
+        <v>25469886.75559455</v>
       </c>
       <c r="G91" t="n">
-        <v>14206788141.99041</v>
+        <v>8142963555.887136</v>
       </c>
       <c r="H91" t="n">
-        <v>95181748.55340725</v>
+        <v>54563846.95004484</v>
       </c>
     </row>
     <row r="92">
@@ -3372,19 +3372,19 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2929425.189087573</v>
+        <v>2709038.800991702</v>
       </c>
       <c r="E92" t="n">
-        <v>1171770075.635029</v>
+        <v>1083615520.396681</v>
       </c>
       <c r="F92" t="n">
-        <v>316377920.4214579</v>
+        <v>292576190.5071038</v>
       </c>
       <c r="G92" t="n">
-        <v>2310173998.366351</v>
+        <v>2366020308.010133</v>
       </c>
       <c r="H92" t="n">
-        <v>623733211.2605259</v>
+        <v>638818439.6618532</v>
       </c>
     </row>
     <row r="93">
@@ -3404,19 +3404,19 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2902539.469497925</v>
+        <v>3017324.527466893</v>
       </c>
       <c r="E93" t="n">
-        <v>1451269734.748963</v>
+        <v>1508662263.733447</v>
       </c>
       <c r="F93" t="n">
-        <v>391842828.3822199</v>
+        <v>407338811.2080306</v>
       </c>
       <c r="G93" t="n">
-        <v>2336631349.129915</v>
+        <v>2180047144.340105</v>
       </c>
       <c r="H93" t="n">
-        <v>630895979.0900691</v>
+        <v>588619668.8182416</v>
       </c>
     </row>
     <row r="94">
@@ -3436,19 +3436,19 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>361853.6000176883</v>
+        <v>361785.3303087578</v>
       </c>
       <c r="E94" t="n">
-        <v>21711216.0010613</v>
+        <v>21707119.81852547</v>
       </c>
       <c r="F94" t="n">
-        <v>12809617.44062616</v>
+        <v>12807200.69293002</v>
       </c>
       <c r="G94" t="n">
-        <v>28626238.29739932</v>
+        <v>28631691.04063509</v>
       </c>
       <c r="H94" t="n">
-        <v>16887707.51282552</v>
+        <v>16891757.0721159</v>
       </c>
     </row>
     <row r="95">
@@ -3468,19 +3468,19 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>205272.0404527667</v>
+        <v>205244.2124707716</v>
       </c>
       <c r="E95" t="n">
-        <v>13137410.58897707</v>
+        <v>13135629.59812938</v>
       </c>
       <c r="F95" t="n">
-        <v>7751072.24749647</v>
+        <v>7750021.462896335</v>
       </c>
       <c r="G95" t="n">
-        <v>45582709.30294137</v>
+        <v>45621683.54800311</v>
       </c>
       <c r="H95" t="n">
-        <v>26892690.01971696</v>
+        <v>26915726.02341698</v>
       </c>
     </row>
     <row r="96">
@@ -3564,19 +3564,19 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1824820.094481582</v>
+        <v>1824946.456232214</v>
       </c>
       <c r="E98" t="n">
-        <v>85766544.44063435</v>
+        <v>85772483.44291407</v>
       </c>
       <c r="F98" t="n">
-        <v>90054871.66266608</v>
+        <v>90061107.61505976</v>
       </c>
       <c r="G98" t="n">
-        <v>98777511.71428804</v>
+        <v>98766102.21128742</v>
       </c>
       <c r="H98" t="n">
-        <v>103722774.1703331</v>
+        <v>103711707.1076767</v>
       </c>
     </row>
     <row r="99">
@@ -3596,19 +3596,19 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>901241.9341454756</v>
+        <v>901447.3958039864</v>
       </c>
       <c r="E99" t="n">
-        <v>40555887.0365464</v>
+        <v>40565132.81117938</v>
       </c>
       <c r="F99" t="n">
-        <v>42583681.38837373</v>
+        <v>42593389.45173836</v>
       </c>
       <c r="G99" t="n">
-        <v>53245373.4693147</v>
+        <v>53230468.72222539</v>
       </c>
       <c r="H99" t="n">
-        <v>55904037.17504385</v>
+        <v>55889738.53984715</v>
       </c>
     </row>
     <row r="100">
@@ -3628,19 +3628,19 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>18534617.17857538</v>
+        <v>18536268.09282338</v>
       </c>
       <c r="E100" t="n">
-        <v>926730858.9287691</v>
+        <v>926813404.641169</v>
       </c>
       <c r="F100" t="n">
-        <v>926730858.9287691</v>
+        <v>926813404.641169</v>
       </c>
       <c r="G100" t="n">
-        <v>2751278573.98773</v>
+        <v>2752079723.741487</v>
       </c>
       <c r="H100" t="n">
-        <v>2751278573.98773</v>
+        <v>2752079723.741487</v>
       </c>
     </row>
     <row r="101">
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>9989713.744965134</v>
+        <v>9985080.331024377</v>
       </c>
       <c r="E101" t="n">
-        <v>699279962.1475594</v>
+        <v>698955623.1717063</v>
       </c>
       <c r="F101" t="n">
-        <v>699279962.1475594</v>
+        <v>698955623.1717063</v>
       </c>
       <c r="G101" t="n">
-        <v>1062505953.914492</v>
+        <v>1061813442.401132</v>
       </c>
       <c r="H101" t="n">
-        <v>1062505953.914492</v>
+        <v>1061813442.401132</v>
       </c>
     </row>
   </sheetData>
